--- a/xlsx/替代能源_intext.xlsx
+++ b/xlsx/替代能源_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
   <si>
     <t>替代能源</t>
   </si>
@@ -29,7 +29,7 @@
     <t>哥本哈根</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_替代能源</t>
+    <t>政策_政策_混合动力车辆_替代能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E8%83%BD%E6%BA%90%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%96%E7%B6%AD%E7%B4%A0%E4%B9%99%E9%86%87</t>
   </si>
   <si>
-    <t>纖維素乙醇</t>
+    <t>纤维素乙醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>碳足跡</t>
+    <t>碳足迹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/cellulosic_ethanol_commercialization</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>核動力</t>
+    <t>核动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%83%BD</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%87%83%E6%96%99</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%B3%B5</t>
   </si>
   <si>
-    <t>熱泵</t>
+    <t>热泵</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thermal_energy_storage</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E7%86%B1</t>
   </si>
   <si>
-    <t>潛熱</t>
+    <t>潜热</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Drake_Landing_Solar_Community</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1</t>
   </si>
   <si>
-    <t>地熱</t>
+    <t>地热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%B4%A8</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E6%B2%B9</t>
   </si>
   <si>
-    <t>棕櫚油</t>
+    <t>棕榈油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%86%87%E7%BB%8F%E6%B5%8E</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E9%9B%BB%E8%A7%A3</t>
   </si>
   <si>
-    <t>水電解</t>
+    <t>水电解</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>綠色貿易</t>
+    <t>绿色贸易</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eco_commerce</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A8%85</t>
   </si>
   <si>
-    <t>生態稅</t>
+    <t>生态税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D%E9%97%9C%E7%A8%85</t>
   </si>
   <si>
-    <t>環保關稅</t>
+    <t>环保关税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%80%E8%AE%A1%E9%87%8F%E7%94%B5%E4%BB%B7</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pollution_haven_hypothesis</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E7%A2%B3%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>低碳經濟</t>
+    <t>低碳经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Carbon_neutral_fuel</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E5%AE%9A%E5%83%B9</t>
   </si>
   <si>
-    <t>碳定價</t>
+    <t>碳定价</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Carbon_pricing</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E7%AF%80%E9%A3%9F</t>
   </si>
   <si>
-    <t>碳節食</t>
+    <t>碳节食</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Food_miles</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%94%B6%E9%9B%86%E5%8F%8A%E5%84%B2%E5%AD%98</t>
   </si>
   <si>
-    <t>碳收集及儲存</t>
+    <t>碳收集及储存</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/negative_carbon_dioxide_emission</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>藻類生質燃料</t>
+    <t>藻类生质燃料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biomass_briquettes</t>
@@ -785,19 +785,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E9%BE%8D%E5%8A%A0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>維龍加國家公園</t>
+    <t>维龙加国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>生物氣體</t>
+    <t>生物气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%8A%9B%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>風力發電廠</t>
+    <t>风力发电厂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/offshore_wind_energy</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%8A%9B%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>風力發動機</t>
+    <t>风力发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E8%83%BD</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%B7%E7%87%83%E6%96%99%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>釷燃料發電</t>
+    <t>钍燃料发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E7%87%83%E6%96%99%E5%BE%AA%E7%8E%AF</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8%E6%93%B4%E6%95%A3</t>
   </si>
   <si>
-    <t>核武器擴散</t>
+    <t>核武器扩散</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%9A</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>純電動車</t>
+    <t>纯电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7%E8%81%86%E9%A3%8E</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>電動載具</t>
+    <t>电动载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E7%94%B5%E5%BC%8F%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B%E6%B1%BD%E8%BD%A6</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E9%9B%BB%E7%B6%B2</t>
   </si>
   <si>
-    <t>智慧電網</t>
+    <t>智慧电网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E8%BF%AA%E4%BA%9A%E5%9B%BD%E5%AE%B6%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -953,13 +953,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
   </si>
   <si>
-    <t>美國能源部</t>
+    <t>美国能源部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽熱能</t>
+    <t>太阳热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%83%BD%E7%A9%BA%E8%B0%83</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%83%BD%E6%BA%90%E7%BD%B2</t>
   </si>
   <si>
-    <t>國際能源署</t>
+    <t>国际能源署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%83%BD%E5%85%89%E4%BC%8F</t>
@@ -1013,9 +1013,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E8%83%BD</t>
   </si>
   <si>
-    <t>风能</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%B1%80</t>
   </si>
   <si>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州理工學院</t>
+    <t>加州理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E7%94%B5%E8%81%94%E4%BA%A7</t>
@@ -1091,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B2%B1%E5%B1%AC</t>
   </si>
   <si>
-    <t>高粱屬</t>
+    <t>高粱属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%94%97</t>
@@ -1145,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>新罕布什爾大學</t>
+    <t>新罕布什尔大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SG_Biofuels</t>
@@ -1169,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alternative_energy_indexes</t>
@@ -1181,13 +1178,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>能源發展</t>
+    <t>能源发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E7%94%B5%E6%B1%A0</t>
@@ -1235,13 +1232,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E6%88%B4%E7%B6%AD%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學戴維斯分校</t>
+    <t>加利福尼亚大学戴维斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%96%80%E8%8F%B2%E8%8E%8E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西門菲莎大學</t>
+    <t>西门菲莎大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BF%B0%E5%A4%A7%E5%AD%A6</t>
@@ -1259,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%89%A9%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國物理學會</t>
+    <t>美国物理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Archive.is</t>
@@ -6520,7 +6517,7 @@
         <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="G169" t="n">
         <v>18</v>
@@ -6546,10 +6543,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6575,10 +6572,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6604,10 +6601,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6662,10 +6659,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>338</v>
+      </c>
+      <c r="F174" t="s">
         <v>339</v>
-      </c>
-      <c r="F174" t="s">
-        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6691,10 +6688,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" t="s">
         <v>341</v>
-      </c>
-      <c r="F175" t="s">
-        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6720,10 +6717,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6749,10 +6746,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6778,10 +6775,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6807,10 +6804,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>8</v>
@@ -6836,10 +6833,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>5</v>
@@ -6865,10 +6862,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6894,10 +6891,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6923,10 +6920,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6952,10 +6949,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -6981,10 +6978,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7010,10 +7007,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7039,10 +7036,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7068,10 +7065,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7097,10 +7094,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7126,10 +7123,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7155,10 +7152,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7184,10 +7181,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7213,10 +7210,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7242,10 +7239,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7271,10 +7268,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7300,10 +7297,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7329,10 +7326,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" t="s">
-        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7358,10 +7355,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
         <v>387</v>
-      </c>
-      <c r="F198" t="s">
-        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7387,10 +7384,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" t="s">
         <v>389</v>
-      </c>
-      <c r="F199" t="s">
-        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7416,10 +7413,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
         <v>391</v>
-      </c>
-      <c r="F200" t="s">
-        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7445,10 +7442,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>392</v>
+      </c>
+      <c r="F201" t="s">
         <v>393</v>
-      </c>
-      <c r="F201" t="s">
-        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7474,10 +7471,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202" t="s">
         <v>395</v>
-      </c>
-      <c r="F202" t="s">
-        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7532,10 +7529,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>396</v>
+      </c>
+      <c r="F204" t="s">
         <v>397</v>
-      </c>
-      <c r="F204" t="s">
-        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7561,10 +7558,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>398</v>
+      </c>
+      <c r="F205" t="s">
         <v>399</v>
-      </c>
-      <c r="F205" t="s">
-        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7619,10 +7616,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>400</v>
+      </c>
+      <c r="F207" t="s">
         <v>401</v>
-      </c>
-      <c r="F207" t="s">
-        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7648,10 +7645,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>402</v>
+      </c>
+      <c r="F208" t="s">
         <v>403</v>
-      </c>
-      <c r="F208" t="s">
-        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -7677,10 +7674,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>404</v>
+      </c>
+      <c r="F209" t="s">
         <v>405</v>
-      </c>
-      <c r="F209" t="s">
-        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7706,10 +7703,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>406</v>
+      </c>
+      <c r="F210" t="s">
         <v>407</v>
-      </c>
-      <c r="F210" t="s">
-        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7735,10 +7732,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>408</v>
+      </c>
+      <c r="F211" t="s">
         <v>409</v>
-      </c>
-      <c r="F211" t="s">
-        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7793,10 +7790,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>410</v>
+      </c>
+      <c r="F213" t="s">
         <v>411</v>
-      </c>
-      <c r="F213" t="s">
-        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7822,10 +7819,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>412</v>
+      </c>
+      <c r="F214" t="s">
         <v>413</v>
-      </c>
-      <c r="F214" t="s">
-        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7851,10 +7848,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>414</v>
+      </c>
+      <c r="F215" t="s">
         <v>415</v>
-      </c>
-      <c r="F215" t="s">
-        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7880,10 +7877,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>416</v>
+      </c>
+      <c r="F216" t="s">
         <v>417</v>
-      </c>
-      <c r="F216" t="s">
-        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -7909,10 +7906,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>418</v>
+      </c>
+      <c r="F217" t="s">
         <v>419</v>
-      </c>
-      <c r="F217" t="s">
-        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
